--- a/Documentation/EndPoints.xlsx
+++ b/Documentation/EndPoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\JavaScrip-DSW\UTN-FRRO-DSW-2024-rodriguez-caldani\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\HardwareHaven\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B075FED-C836-4D58-BB7A-DCF24283B562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE1A67E-E960-4EE1-8A89-2A6DBB6E7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
   <si>
     <t>Entidad</t>
   </si>
@@ -346,6 +346,21 @@
 "subTotal":"200",
 "componenteId":"6"
 }</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>HEALT</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/lineaCompra/healt</t>
+  </si>
+  <si>
+    <t>Facturation</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/compra/facturate/:id</t>
   </si>
 </sst>
 </file>
@@ -772,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -858,7 +873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52.5" thickBot="1">
+    <row r="4" spans="1:7" ht="65.25" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,7 +919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="78" thickBot="1">
+    <row r="6" spans="1:7" ht="103.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="65.25" thickBot="1">
+    <row r="13" spans="1:7" ht="90.75" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1086,25 +1101,25 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
@@ -1115,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -1127,98 +1142,98 @@
         <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="65.25" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="78" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90.75" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="52.5" thickBot="1">
+    <row r="19" spans="1:7" ht="90.75" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="78" thickBot="1">
+    <row r="20" spans="1:7" ht="52.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1226,41 +1241,43 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+    <row r="21" spans="1:7" ht="78" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="3" t="s">
@@ -1270,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
@@ -1281,96 +1298,94 @@
       <c r="F22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="52.5" thickBot="1">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="65.25" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="39.75" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" ht="52.5" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
@@ -1381,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>47</v>
@@ -1393,99 +1408,99 @@
         <v>47</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="65.25" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="78" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="65.25" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
+    <row r="31" spans="1:7" ht="65.25" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
@@ -1496,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>47</v>
@@ -1508,102 +1523,148 @@
         <v>47</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="65.25" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="65.25" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="78" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="36" spans="1:7" ht="78" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{E06E9582-AEB3-4099-B9B4-C011B9E07A0B}"/>
-    <hyperlink ref="D34" r:id="rId2" xr:uid="{F899F7C7-9D41-4F21-A698-AA64685B89AF}"/>
-    <hyperlink ref="D33" r:id="rId3" xr:uid="{CF1B26F7-7C3F-48E9-9A64-561160A49089}"/>
-    <hyperlink ref="D32" r:id="rId4" xr:uid="{1FE80217-26C2-44D9-9833-F45C7B308E23}"/>
-    <hyperlink ref="D31" r:id="rId5" xr:uid="{83A091A9-882B-4DC8-B1CD-25B1D1DBF54E}"/>
-    <hyperlink ref="D30" r:id="rId6" xr:uid="{BD7E38F9-32D8-4836-8757-1DAACF553CA4}"/>
-    <hyperlink ref="D29" r:id="rId7" xr:uid="{DE35F5EA-B0A8-4BF1-B399-946FA60F9E79}"/>
-    <hyperlink ref="D28" r:id="rId8" xr:uid="{0C28FE42-8E4C-4346-8801-5B00BA98E1BC}"/>
-    <hyperlink ref="D27" r:id="rId9" xr:uid="{212A1089-BED0-49DD-8CB9-5BE0391531ED}"/>
-    <hyperlink ref="D26" r:id="rId10" xr:uid="{323865A6-3CE4-4101-9C15-797231619FA8}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{03F59296-A5AB-4BBC-8461-993CC75B36F4}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{619C6316-633F-428D-A932-4D1014D89925}"/>
-    <hyperlink ref="D23" r:id="rId13" xr:uid="{6565B145-BDCD-464F-9904-4B97BA7E83D2}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{33DBBC3D-6322-4801-BBCF-DEBB13833E81}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{BBD2CE9E-6432-490F-A1C6-508F3796FE04}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{42295469-BEED-4CD1-8165-FB0A8396E3C0}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{3B34F3A0-503A-4F08-9E86-EF632F39DEE8}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{76BDE107-378A-4631-A841-3F504DF1F25E}"/>
-    <hyperlink ref="D17" r:id="rId19" xr:uid="{B683F4D5-27C6-4529-8FA6-443A246C8590}"/>
-    <hyperlink ref="D16" r:id="rId20" xr:uid="{469BBC6D-CC63-488B-A1B9-5D1F2AA14509}"/>
-    <hyperlink ref="D15" r:id="rId21" xr:uid="{7205F55D-AB6B-4D2C-9FBF-A1BD3C8D368A}"/>
-    <hyperlink ref="D14" r:id="rId22" xr:uid="{E835E970-E1DB-4A2A-89A4-21330D916932}"/>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{E06E9582-AEB3-4099-B9B4-C011B9E07A0B}"/>
+    <hyperlink ref="D35" r:id="rId2" xr:uid="{F899F7C7-9D41-4F21-A698-AA64685B89AF}"/>
+    <hyperlink ref="D34" r:id="rId3" xr:uid="{CF1B26F7-7C3F-48E9-9A64-561160A49089}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{1FE80217-26C2-44D9-9833-F45C7B308E23}"/>
+    <hyperlink ref="D32" r:id="rId5" xr:uid="{83A091A9-882B-4DC8-B1CD-25B1D1DBF54E}"/>
+    <hyperlink ref="D31" r:id="rId6" xr:uid="{BD7E38F9-32D8-4836-8757-1DAACF553CA4}"/>
+    <hyperlink ref="D30" r:id="rId7" xr:uid="{DE35F5EA-B0A8-4BF1-B399-946FA60F9E79}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{0C28FE42-8E4C-4346-8801-5B00BA98E1BC}"/>
+    <hyperlink ref="D28" r:id="rId9" xr:uid="{212A1089-BED0-49DD-8CB9-5BE0391531ED}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{323865A6-3CE4-4101-9C15-797231619FA8}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{03F59296-A5AB-4BBC-8461-993CC75B36F4}"/>
+    <hyperlink ref="D25" r:id="rId12" xr:uid="{619C6316-633F-428D-A932-4D1014D89925}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{6565B145-BDCD-464F-9904-4B97BA7E83D2}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{33DBBC3D-6322-4801-BBCF-DEBB13833E81}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{BBD2CE9E-6432-490F-A1C6-508F3796FE04}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{42295469-BEED-4CD1-8165-FB0A8396E3C0}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{3B34F3A0-503A-4F08-9E86-EF632F39DEE8}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{76BDE107-378A-4631-A841-3F504DF1F25E}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{B683F4D5-27C6-4529-8FA6-443A246C8590}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{469BBC6D-CC63-488B-A1B9-5D1F2AA14509}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{7205F55D-AB6B-4D2C-9FBF-A1BD3C8D368A}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{E835E970-E1DB-4A2A-89A4-21330D916932}"/>
     <hyperlink ref="D13" r:id="rId23" xr:uid="{A37FDD3D-016D-4996-A70E-612CDEEDD0C2}"/>
     <hyperlink ref="D12" r:id="rId24" xr:uid="{A7E1D2A9-5415-4DAC-9C15-3768C1C3B06D}"/>
     <hyperlink ref="D11" r:id="rId25" xr:uid="{1E21471A-0133-4E6C-9BC6-90FB23683412}"/>
@@ -1616,8 +1677,10 @@
     <hyperlink ref="D4" r:id="rId32" xr:uid="{599C3344-B9EF-4B52-9EA5-F4CDD35354AC}"/>
     <hyperlink ref="D3" r:id="rId33" xr:uid="{6268844A-2593-4B0C-9673-E38BCCEB6F76}"/>
     <hyperlink ref="D2" r:id="rId34" xr:uid="{8489659A-2714-4BC8-A599-9C96BB2EF4AD}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{15A984D3-8E31-433D-AC16-FFC81D35F392}"/>
+    <hyperlink ref="D14" r:id="rId36" xr:uid="{137F6502-25BF-427A-A359-548540D4FE5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>